--- a/UiFLOW APP/RGB LED panel.xlsx
+++ b/UiFLOW APP/RGB LED panel.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ling\Documents\TC\smart device\ESP32\M5Stack\UiFLOW APP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\UIFLOW APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991BEE19-3D7E-4655-8FE9-5C60514F09B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="29508" windowHeight="17496" xr2:uid="{8AEB67E9-6863-430B-9B34-083241E3B38E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23451" windowHeight="9926"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -41,7 +40,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -51,6 +50,16 @@
     <fill>
       <patternFill patternType="gray125">
         <bgColor theme="9" tint="0.59996337778862885"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -81,14 +90,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -399,20 +414,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB462D47-B83E-4EE3-8033-223FD55A0F3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="8" width="3" bestFit="1" customWidth="1"/>
     <col min="11" max="18" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -440,29 +455,29 @@
       <c r="K1" s="1">
         <v>1</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="2">
         <v>2</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="2">
         <v>3</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="2">
         <v>4</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="2">
         <v>5</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="2">
         <v>6</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="2">
         <v>7</v>
       </c>
       <c r="R1" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>9</v>
       </c>
@@ -487,7 +502,7 @@
       <c r="H2" s="1">
         <v>16</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <v>9</v>
       </c>
       <c r="L2" s="1">
@@ -496,10 +511,10 @@
       <c r="M2" s="1">
         <v>11</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="3">
         <v>12</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="3">
         <v>13</v>
       </c>
       <c r="P2" s="1">
@@ -508,11 +523,11 @@
       <c r="Q2" s="1">
         <v>15</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>17</v>
       </c>
@@ -537,7 +552,7 @@
       <c r="H3" s="1">
         <v>24</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <v>17</v>
       </c>
       <c r="L3" s="1">
@@ -546,10 +561,10 @@
       <c r="M3" s="1">
         <v>19</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="3">
         <v>20</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="3">
         <v>21</v>
       </c>
       <c r="P3" s="1">
@@ -558,11 +573,11 @@
       <c r="Q3" s="1">
         <v>23</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>25</v>
       </c>
@@ -587,7 +602,7 @@
       <c r="H4" s="1">
         <v>32</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <v>25</v>
       </c>
       <c r="L4" s="1">
@@ -596,10 +611,10 @@
       <c r="M4" s="1">
         <v>27</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="3">
         <v>28</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="3">
         <v>29</v>
       </c>
       <c r="P4" s="1">
@@ -608,11 +623,11 @@
       <c r="Q4" s="1">
         <v>31</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>33</v>
       </c>
@@ -640,29 +655,29 @@
       <c r="K5" s="1">
         <v>33</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <v>34</v>
       </c>
       <c r="M5" s="1">
         <v>35</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="3">
         <v>36</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="3">
         <v>37</v>
       </c>
       <c r="P5" s="1">
         <v>38</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="2">
         <v>39</v>
       </c>
       <c r="R5" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>41</v>
       </c>
@@ -690,7 +705,7 @@
       <c r="K6" s="1">
         <v>41</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <v>42</v>
       </c>
       <c r="M6" s="1">
@@ -705,14 +720,14 @@
       <c r="P6" s="1">
         <v>46</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="2">
         <v>47</v>
       </c>
       <c r="R6" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>49</v>
       </c>
@@ -743,16 +758,16 @@
       <c r="L7" s="1">
         <v>50</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="2">
         <v>51</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="3">
         <v>52</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="3">
         <v>53</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="2">
         <v>54</v>
       </c>
       <c r="Q7" s="1">
@@ -762,7 +777,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>57</v>
       </c>
@@ -796,10 +811,10 @@
       <c r="M8" s="1">
         <v>59</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="2">
         <v>60</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="2">
         <v>61</v>
       </c>
       <c r="P8" s="1">
